--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semjon Buzdin\Desktop\IPA2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695DF04A-C369-4546-8297-4C658ED6DF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023FEBE3-985B-4674-8112-B1908676615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Arbeiten</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Mi 30.3.22</t>
+  </si>
+  <si>
+    <t>Notiz: Dienstag entfernt da der Dienstag ein Schultag ist</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -237,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +564,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,6 +831,7 @@
       <c r="Q11" s="5"/>
       <c r="T11" s="2"/>
       <c r="U11" s="10"/>
+      <c r="V11" s="2"/>
       <c r="Y11" s="5"/>
       <c r="AC11" s="10"/>
     </row>
@@ -934,6 +941,7 @@
       <c r="M17" s="10"/>
       <c r="Q17" s="5"/>
       <c r="U17" s="10"/>
+      <c r="W17" s="2"/>
       <c r="Y17" s="5"/>
       <c r="AC17" s="10"/>
     </row>
@@ -968,6 +976,7 @@
       <c r="M19" s="10"/>
       <c r="Q19" s="5"/>
       <c r="U19" s="10"/>
+      <c r="X19" s="2"/>
       <c r="Y19" s="5"/>
       <c r="AC19" s="10"/>
     </row>
@@ -1008,15 +1017,33 @@
         <v>26</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M21" s="10"/>
-      <c r="N21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="Q21" s="5"/>
-      <c r="S21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="U21" s="10"/>
-      <c r="Y21" s="5"/>
+      <c r="W21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1137,18 +1164,20 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
+      <c r="R24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semjon Buzdin\Desktop\IPA2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023FEBE3-985B-4674-8112-B1908676615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC8023D-6421-4BD7-94FA-E3F7B0E13109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Arbeiten</t>
   </si>
@@ -226,23 +226,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +564,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,92 +577,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="12"/>
+      <c r="AC1" s="16"/>
     </row>
     <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -1044,6 +1044,15 @@
       <c r="Y21" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="Z21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1108,87 +1117,88 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
       <c r="AC23" s="6"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="17" t="s">
+      <c r="R24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A23:AB23"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="R24:AC24"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AA2"/>
+    <mergeCell ref="AB1:AC2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="V1:W2"/>
     <mergeCell ref="A15:D16"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="F1:G2"/>
@@ -1201,15 +1211,14 @@
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D12"/>
     <mergeCell ref="A13:D14"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AA2"/>
-    <mergeCell ref="AB1:AC2"/>
-    <mergeCell ref="L1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="A23:AB23"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="R24:AC24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
